--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>164.348291165435</v>
+        <v>0.5622926666666667</v>
       </c>
       <c r="H2">
-        <v>164.348291165435</v>
+        <v>1.686878</v>
       </c>
       <c r="I2">
-        <v>0.9643595619214632</v>
+        <v>0.003273311980002875</v>
       </c>
       <c r="J2">
-        <v>0.9643595619214632</v>
+        <v>0.003273311980002875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>7940.216825676324</v>
+        <v>13.30378920122111</v>
       </c>
       <c r="R2">
-        <v>7940.216825676324</v>
+        <v>119.73410281099</v>
       </c>
       <c r="S2">
-        <v>0.9299129124248705</v>
+        <v>0.0009813369485521697</v>
       </c>
       <c r="T2">
-        <v>0.9299129124248705</v>
+        <v>0.0009813369485521699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>164.348291165435</v>
+        <v>0.5622926666666667</v>
       </c>
       <c r="H3">
-        <v>164.348291165435</v>
+        <v>1.686878</v>
       </c>
       <c r="I3">
-        <v>0.9643595619214632</v>
+        <v>0.003273311980002875</v>
       </c>
       <c r="J3">
-        <v>0.9643595619214632</v>
+        <v>0.003273311980002875</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N3">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q3">
-        <v>294.1284740393561</v>
+        <v>0.04324349239177778</v>
       </c>
       <c r="R3">
-        <v>294.1284740393561</v>
+        <v>0.389191431526</v>
       </c>
       <c r="S3">
-        <v>0.03444664949659274</v>
+        <v>3.189800757260275E-06</v>
       </c>
       <c r="T3">
-        <v>0.03444664949659274</v>
+        <v>3.189800757260276E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.07392234793029</v>
+        <v>0.5622926666666667</v>
       </c>
       <c r="H4">
-        <v>6.07392234793029</v>
+        <v>1.686878</v>
       </c>
       <c r="I4">
-        <v>0.0356404380785369</v>
+        <v>0.003273311980002875</v>
       </c>
       <c r="J4">
-        <v>0.0356404380785369</v>
+        <v>0.003273311980002875</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N4">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q4">
-        <v>293.4515478249809</v>
+        <v>29.92213679278822</v>
       </c>
       <c r="R4">
-        <v>293.4515478249809</v>
+        <v>269.299231135094</v>
       </c>
       <c r="S4">
-        <v>0.03436737175880215</v>
+        <v>0.002207168045905312</v>
       </c>
       <c r="T4">
-        <v>0.03436737175880215</v>
+        <v>0.002207168045905313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.5622926666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.686878</v>
+      </c>
+      <c r="I5">
+        <v>0.003273311980002875</v>
+      </c>
+      <c r="J5">
+        <v>0.003273311980002875</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.903338</v>
+      </c>
+      <c r="O5">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P5">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q5">
+        <v>1.106467888751556</v>
+      </c>
+      <c r="R5">
+        <v>9.958210998763999</v>
+      </c>
+      <c r="S5">
+        <v>8.161718478813159E-05</v>
+      </c>
+      <c r="T5">
+        <v>8.161718478813163E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>164.655884</v>
+      </c>
+      <c r="H6">
+        <v>493.967652</v>
+      </c>
+      <c r="I6">
+        <v>0.958522331209187</v>
+      </c>
+      <c r="J6">
+        <v>0.9585223312091871</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N6">
+        <v>70.979705</v>
+      </c>
+      <c r="O6">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P6">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q6">
+        <v>3895.742024278073</v>
+      </c>
+      <c r="R6">
+        <v>35061.67821850266</v>
+      </c>
+      <c r="S6">
+        <v>0.2873644142001734</v>
+      </c>
+      <c r="T6">
+        <v>0.2873644142001734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>164.655884</v>
+      </c>
+      <c r="H7">
+        <v>493.967652</v>
+      </c>
+      <c r="I7">
+        <v>0.958522331209187</v>
+      </c>
+      <c r="J7">
+        <v>0.9585223312091871</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.230717</v>
+      </c>
+      <c r="O7">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P7">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q7">
+        <v>12.66297052960933</v>
+      </c>
+      <c r="R7">
+        <v>113.966734766484</v>
+      </c>
+      <c r="S7">
+        <v>0.0009340677810794141</v>
+      </c>
+      <c r="T7">
+        <v>0.0009340677810794145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>164.655884</v>
+      </c>
+      <c r="H8">
+        <v>493.967652</v>
+      </c>
+      <c r="I8">
+        <v>0.958522331209187</v>
+      </c>
+      <c r="J8">
+        <v>0.9585223312091871</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N8">
+        <v>159.643573</v>
+      </c>
+      <c r="O8">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P8">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q8">
+        <v>8762.08454574451</v>
+      </c>
+      <c r="R8">
+        <v>78858.76091170059</v>
+      </c>
+      <c r="S8">
+        <v>0.646323929297362</v>
+      </c>
+      <c r="T8">
+        <v>0.6463239292973622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>164.655884</v>
+      </c>
+      <c r="H9">
+        <v>493.967652</v>
+      </c>
+      <c r="I9">
+        <v>0.958522331209187</v>
+      </c>
+      <c r="J9">
+        <v>0.9585223312091871</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.903338</v>
+      </c>
+      <c r="O9">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P9">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q9">
+        <v>324.0064456469306</v>
+      </c>
+      <c r="R9">
+        <v>2916.058010822376</v>
+      </c>
+      <c r="S9">
+        <v>0.02389991993057202</v>
+      </c>
+      <c r="T9">
+        <v>0.02389991993057203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.03775666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.11327</v>
+      </c>
+      <c r="I10">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="J10">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>0.8933190205944445</v>
+      </c>
+      <c r="R10">
+        <v>8.03987118535</v>
+      </c>
+      <c r="S10">
+        <v>6.589453188820072E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.589453188820075E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6.07392234793029</v>
-      </c>
-      <c r="H5">
-        <v>6.07392234793029</v>
-      </c>
-      <c r="I5">
-        <v>0.0356404380785369</v>
-      </c>
-      <c r="J5">
-        <v>0.0356404380785369</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="N5">
-        <v>1.78966554476239</v>
-      </c>
-      <c r="O5">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="P5">
-        <v>0.03571971581632748</v>
-      </c>
-      <c r="Q5">
-        <v>10.87028954765312</v>
-      </c>
-      <c r="R5">
-        <v>10.87028954765312</v>
-      </c>
-      <c r="S5">
-        <v>0.001273066319734755</v>
-      </c>
-      <c r="T5">
-        <v>0.001273066319734755</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.03775666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.11327</v>
+      </c>
+      <c r="I11">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="J11">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>0.002903701621111111</v>
+      </c>
+      <c r="R11">
+        <v>0.02613331459</v>
+      </c>
+      <c r="S11">
+        <v>2.141878261349495E-07</v>
+      </c>
+      <c r="T11">
+        <v>2.141878261349496E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.03775666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.11327</v>
+      </c>
+      <c r="I12">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="J12">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>2.009203057078889</v>
+      </c>
+      <c r="R12">
+        <v>18.08282751371</v>
+      </c>
+      <c r="S12">
+        <v>0.0001482062867378048</v>
+      </c>
+      <c r="T12">
+        <v>0.0001482062867378049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.03775666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.11327</v>
+      </c>
+      <c r="I13">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="J13">
+        <v>0.0002197954137613542</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>0.07429678836222223</v>
+      </c>
+      <c r="R13">
+        <v>0.66867109526</v>
+      </c>
+      <c r="S13">
+        <v>5.480407309213628E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.48040730921363E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.525024333333334</v>
+      </c>
+      <c r="H14">
+        <v>19.575073</v>
+      </c>
+      <c r="I14">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="J14">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>154.3814340992739</v>
+      </c>
+      <c r="R14">
+        <v>1389.432906893465</v>
+      </c>
+      <c r="S14">
+        <v>0.01138774849485616</v>
+      </c>
+      <c r="T14">
+        <v>0.01138774849485616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.525024333333334</v>
+      </c>
+      <c r="H15">
+        <v>19.575073</v>
+      </c>
+      <c r="I15">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="J15">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>0.5018113463712223</v>
+      </c>
+      <c r="R15">
+        <v>4.516302117341</v>
+      </c>
+      <c r="S15">
+        <v>3.701547040083821E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.701547040083823E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.525024333333334</v>
+      </c>
+      <c r="H16">
+        <v>19.575073</v>
+      </c>
+      <c r="I16">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="J16">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>347.2260661617588</v>
+      </c>
+      <c r="R16">
+        <v>3125.034595455829</v>
+      </c>
+      <c r="S16">
+        <v>0.02561268545909298</v>
+      </c>
+      <c r="T16">
+        <v>0.02561268545909299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.525024333333334</v>
+      </c>
+      <c r="H17">
+        <v>19.575073</v>
+      </c>
+      <c r="I17">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="J17">
+        <v>0.03798456139704876</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>12.83980803263045</v>
+      </c>
+      <c r="R17">
+        <v>115.558272293674</v>
+      </c>
+      <c r="S17">
+        <v>0.0009471119726987757</v>
+      </c>
+      <c r="T17">
+        <v>0.0009471119726987762</v>
       </c>
     </row>
   </sheetData>
